--- a/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_test.xlsx
+++ b/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515C5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C660&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL521422</t>
+          <t>CHEMBL1087661</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCN1CCCC1</t>
+          <t>COc1ccc(COc2ccc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCN1CCCC1</t>
+          <t>COc1ccc(COc2ccc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>458.92</v>
+        <v>447.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>89.70999999999999</v>
+        <v>106.54</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515C890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C7B0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CCF0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL1172347</t>
+          <t>CHEMBL438533</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccc[n+]([O-])c3)cc2C2=CCCCC2)n1</t>
+          <t>CC1CCN(c2cc(C3CCNCC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccc[n+]([O-])c3)cc2C2=CCCCC2)n1</t>
+          <t>CC1CCN(c2cc(C3CCNCC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>385.43</v>
+        <v>392.5</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -794,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>108.51</v>
+        <v>81.3</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515ECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D000&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL455591</t>
+          <t>CHEMBL261699</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCC(F)(F)CC4)cc3)ncc2c1=O</t>
+          <t>CC1CCN(c2cc(/C=C/C(=O)O)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCC(F)(F)CC4)cc3)ncc2c1=O</t>
+          <t>CC1CCN(c2cc(/C=C/C(=O)O)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>574.63</v>
+        <v>379.42</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>101.38</v>
+        <v>106.57</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D0E0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL444454</t>
+          <t>CHEMBL253027</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCS(=O)(=O)NC(C)=O)cc3)ncc2c1=O</t>
+          <t>N#Cc1ccc(C(=O)Nc2ccc(-n3ccnc3)cc2N2CCCCC2)o1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCS(=O)(=O)NC(C)=O)cc3)ncc2c1=O</t>
+          <t>N#Cc1ccc(C(=O)Nc2ccc(-n3ccnc3)cc2N2CCCCC2)o1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>576.64</v>
+        <v>361.41</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>161.38</v>
+        <v>87.09</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D3F0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL253027</t>
+          <t>CHEMBL271461</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(C(=O)Nc2ccc(-n3ccnc3)cc2N2CCCCC2)o1</t>
+          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(N4CCNCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(C(=O)Nc2ccc(-n3ccnc3)cc2N2CCCCC2)o1</t>
+          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(N4CCNCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>361.41</v>
+        <v>481.56</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>87.09</v>
+        <v>118.17</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D4D0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL1172346</t>
+          <t>CHEMBL481231</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccncc3)cc2C2=CCCCC2)n1</t>
+          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccncc3)cc2C2=CCCCC2)n1</t>
+          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>369.43</v>
+        <v>501.99</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>94.45999999999999</v>
+        <v>92.95</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515C0B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D7E0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL491078</t>
+          <t>CHEMBL1172116</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(OC)nc3)ncc2c1=O</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3cccc[n+]3[O-])cc2C2=CCCCC2)n1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(OC)nc3)ncc2c1=O</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3cccc[n+]3[O-])cc2C2=CCCCC2)n1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>458.48</v>
+        <v>385.43</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>120.26</v>
+        <v>108.51</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515C2E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97DC40&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL1172116</t>
+          <t>CHEMBL255584</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3cccc[n+]3[O-])cc2C2=CCCCC2)n1</t>
+          <t>CN1CCN(c2cccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccc6c(c5)CCC6)c4n3)c2)CC1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3cccc[n+]3[O-])cc2C2=CCCCC2)n1</t>
+          <t>CN1CCN(c2cccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccc6c(c5)CCC6)c4n3)c2)CC1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>385.43</v>
+        <v>495.59</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>108.51</v>
+        <v>109.38</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515C9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F300&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515D770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F370&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL480646</t>
+          <t>CHEMBL1087280</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCN1CCCC1</t>
+          <t>COc1ccc(COc2ncc(Oc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCN1CCCC1</t>
+          <t>COc1ccc(COc2ncc(Oc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>458.92</v>
+        <v>434.46</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
         <v>8</v>
@@ -1338,10 +1338,10 @@
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>89.70999999999999</v>
+        <v>119.43</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D540&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL249169</t>
+          <t>CHEMBL427775</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccncc3)ccc2c1Nc1ccccc1</t>
+          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(C3=CCOCC3)c2)CC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccncc3)ccc2c1Nc1ccccc1</t>
+          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(C3=CCOCC3)c2)CC1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>340.39</v>
+        <v>392.46</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
       <c r="M14" t="n">
-        <v>80.90000000000001</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DAF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C740&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL521255</t>
+          <t>CHEMBL258474</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCNC1CC1</t>
+          <t>Cc1ccccc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCNC1CC1</t>
+          <t>Cc1ccccc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>444.89</v>
+        <v>400.48</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1477,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>98.5</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5130B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C970&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL514153</t>
+          <t>CHEMBL448339</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(NCc3ccccc3)ncc2c1=O</t>
+          <t>CCN1CCCC(O)(c2cccc(Nc3ncc4c(=O)c(C(=O)NOC)cn(-c5ccc6c(c5)CCC6)c4n3)c2)C1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(NCc3ccccc3)ncc2c1=O</t>
+          <t>CCN1CCCC(O)(c2cccc(Nc3ncc4c(=O)c(C(=O)NOC)cn(-c5ccc6c(c5)CCC6)c4n3)c2)C1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>441.49</v>
+        <v>554.65</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
         <v>6</v>
       </c>
-      <c r="J16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>98.14</v>
+        <v>121.61</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5130040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CB30&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL258474</t>
+          <t>CHEMBL1172345</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1ccccc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3cc[n+]([O-])cc3)cc2C2=CCCCC2)n1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1ccccc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3cc[n+]([O-])cc3)cc2C2=CCCCC2)n1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>400.48</v>
+        <v>385.43</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>72.51000000000001</v>
+        <v>108.51</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5131620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CC80&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL451575</t>
+          <t>CHEMBL523802</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CCONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCN(C)CC4)cc3)ncc2c1=O</t>
+          <t>CCCCNc1ncc2c(=O)c(C(=O)NOC)cn(-c3ccc4c(c3)CCC4)c2n1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CCONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCN(C)CC4)cc3)ncc2c1=O</t>
+          <t>CCCCNc1ncc2c(=O)c(C(=O)NOC)cn(-c3ccc4c(c3)CCC4)c2n1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>567.6900000000001</v>
+        <v>407.47</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>104.62</v>
+        <v>98.14</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F512E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CD60&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL448117</t>
+          <t>CHEMBL250161</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCNC(=O)C4)cc3)ncc2c1=O</t>
+          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)N4CCCCC4)cc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCNC(=O)C4)cc3)ncc2c1=O</t>
+          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)N4CCCCC4)cc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>553.62</v>
+        <v>450.54</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>130.48</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F512FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D1C0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,34 +1772,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL1172528</t>
+          <t>C65384405</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3cccnc3)cc2C2=CCCCC2)n1</t>
+          <t>CC1=CS[C@@H]2NC(=O)C(c3ccccc3NC(=O)C3=C[C@@H]4N=CC=C4C=C3)=NN12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3cccnc3)cc2C2=CCCCC2)n1</t>
+          <t>CC1=CS[C@@H]2NC(=O)C(c3ccccc3NC(=O)C3=C[C@@H]4N=CC=C4C=C3)=NN12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>369.43</v>
+        <v>403.47</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -1808,16 +1808,16 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>94.45999999999999</v>
+        <v>86.16</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F512FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F920&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,52 +1840,52 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL481402</t>
+          <t>C12373501</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCCN1CCN(C)CC1</t>
+          <t>Cc1c([C@@H](C)[NH2+]Cc2ccc(C#CC(C)(C)O)s2)cnn1-c1cccc(F)c1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCCN1CCN(C)CC1</t>
+          <t>Cc1c([C@@H](C)[NH2+]Cc2ccc(C#CC(C)(C)O)s2)cnn1-c1cccc(F)c1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>501.99</v>
+        <v>398.53</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>92.95</v>
+        <v>54.66</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F512F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C580&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,52 +1908,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL250161</t>
+          <t>C13500763</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)N4CCCCC4)cc3)ccc2c1Nc1ccccc1</t>
+          <t>CCC[C@@H](c1nnnn1C(C)(C)C)[NH+](CCO)Cc1cc2cc(OCC)ccc2[nH]c1=O</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)N4CCCCC4)cc3)ccc2c1Nc1ccccc1</t>
+          <t>CCC[C@@H](c1nnnn1C(C)(C)C)[NH+](CCO)Cc1cc2cc(OCC)ccc2[nH]c1=O</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>450.54</v>
+        <v>443.57</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>88.31999999999999</v>
+        <v>110.36</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F512ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D230&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,52 +1976,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL1172529</t>
+          <t>C31808550</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CN(C)S(=O)(=O)c1ccc(-c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)cc1</t>
+          <t>Cc1nn(-c2ncnc3[nH]cnc23)c2c1[C@H](c1c(F)cccc1Cl)SCC(=O)N2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CN(C)S(=O)(=O)c1ccc(-c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)cc1</t>
+          <t>Cc1nn(-c2ncnc3[nH]cnc23)c2c1[C@H](c1c(F)cccc1Cl)SCC(=O)N2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>475.57</v>
+        <v>429.87</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
         <v>5</v>
       </c>
-      <c r="J23" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4</v>
-      </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>118.95</v>
+        <v>101.38</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F512D770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C2E0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,89 +2044,63 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL508935</t>
+          <t>C08324722</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCN(C)C(=O)C4)cc3)ncc2c1=O</t>
+          <t>O=C(C[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCCO2)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCN(C)C(=O)C4)cc3)ncc2c1=O</t>
+          <t>O=C(C[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCCO2)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>567.65</v>
+        <v>409.47</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>121.69</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>CHEMBL961253</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Inhibition of Fms by fluorescence polarization competition immunoassay</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>100.65</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528C190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D460&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2138,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C65384405</t>
+          <t>C05705934</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2146,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CC1=CS[C@@H]2NC(=O)C(c3ccccc3NC(=O)C3=C[C@@H]4N=CC=C4C=C3)=NN12</t>
+          <t>CC1(C)OC[C@@H]([C@@H]2O[C@H]3OC(C)(C)O[C@@H]3/C2=N/NC(=O)c2ccccc2)O1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CC1=CS[C@@H]2NC(=O)C(c3ccccc3NC(=O)C3=C[C@@H]4N=CC=C4C=C3)=NN12</t>
+          <t>CC1(C)OC[C@@H]([C@@H]2O[C@H]3OC(C)(C)O[C@@H]3/C2=N/NC(=O)c2ccccc2)O1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2165,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>403.47</v>
+        <v>376.41</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>86.16</v>
+        <v>87.61</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2194,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F512FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C820&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2206,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C12373501</t>
+          <t>C24496285</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2214,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cc1c([C@@H](C)[NH2+]Cc2ccc(C#CC(C)(C)O)s2)cnn1-c1cccc(F)c1</t>
+          <t>CC(C)(C)OC(=O)NC1(CNC(=O)c2cc3c([nH]c2=O)CCCC3=O)CCCCCC1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cc1c([C@@H](C)[NH2+]Cc2ccc(C#CC(C)(C)O)s2)cnn1-c1cccc(F)c1</t>
+          <t>CC(C)(C)OC(=O)NC1(CNC(=O)c2cc3c([nH]c2=O)CCCC3=O)CCCCCC1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2233,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>398.53</v>
+        <v>431.53</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>54.66</v>
+        <v>117.36</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2262,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C5F0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2274,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C13500763</t>
+          <t>C21882423</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2282,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CCC[C@@H](c1nnnn1C(C)(C)C)[NH+](CCO)Cc1cc2cc(OCC)ccc2[nH]c1=O</t>
+          <t>C[C@@H]1CCc2c(sc3nc(CCC(=O)NCCc4ccc(Cl)cc4)[nH]c(=O)c23)C1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CCC[C@@H](c1nnnn1C(C)(C)C)[NH+](CCO)Cc1cc2cc(OCC)ccc2[nH]c1=O</t>
+          <t>C[C@@H]1CCc2c(sc3nc(CCC(=O)NCCc4ccc(Cl)cc4)[nH]c(=O)c23)C1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2301,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>443.57</v>
+        <v>429.97</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
         <v>6</v>
       </c>
-      <c r="J27" t="n">
-        <v>10</v>
-      </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>110.36</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2330,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CA50&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2342,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C31808550</t>
+          <t>C00320499</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2350,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2ncnc3[nH]cnc23)c2c1[C@H](c1c(F)cccc1Cl)SCC(=O)N2</t>
+          <t>Cc1ccc2nc(-c3ccccn3)c(Nc3c(C)cccc3C)n2c1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2ncnc3[nH]cnc23)c2c1[C@H](c1c(F)cccc1Cl)SCC(=O)N2</t>
+          <t>Cc1ccc2nc(-c3ccccn3)c(Nc3c(C)cccc3C)n2c1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2369,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>429.87</v>
+        <v>328.42</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>101.38</v>
+        <v>42.22</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2398,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B870F20&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2410,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C08324722</t>
+          <t>C42484241</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2418,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O=C(C[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCCO2)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
+          <t>c1ccc(-c2noc(CN3CCc4[nH]cnc4[C@H]3c3ccccn3)n2)cc1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O=C(C[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCCO2)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
+          <t>c1ccc(-c2noc(CN3CCc4[nH]cnc4[C@H]3c3ccccn3)n2)cc1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2437,13 +2411,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>409.47</v>
+        <v>358.4</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -2452,10 +2426,10 @@
         <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>100.65</v>
+        <v>83.73</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2466,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51771B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1070&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2478,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C05705934</t>
+          <t>C11495095</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2486,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CC1(C)OC[C@@H]([C@@H]2O[C@H]3OC(C)(C)O[C@@H]3/C2=N/NC(=O)c2ccccc2)O1</t>
+          <t>Cc1c(C#N)c(NC(=O)CSc2ncnc3c2cnn3C)n(-c2ccc(F)cc2)c1C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CC1(C)OC[C@@H]([C@@H]2O[C@H]3OC(C)(C)O[C@@H]3/C2=N/NC(=O)c2ccccc2)O1</t>
+          <t>Cc1c(C#N)c(NC(=O)CSc2ncnc3c2cnn3C)n(-c2ccc(F)cc2)c1C</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2505,7 +2479,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>376.41</v>
+        <v>435.49</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -2514,16 +2488,16 @@
         <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>87.61</v>
+        <v>101.42</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2534,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1E70&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2546,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C24496285</t>
+          <t>C04734687</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2554,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CC(C)(C)OC(=O)NC1(CNC(=O)c2cc3c([nH]c2=O)CCCC3=O)CCCCCC1</t>
+          <t>Cn1c(-c2ccccc2)c([C@@H]2c3ccccc3C(=O)N2CC(N)=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CC(C)(C)OC(=O)NC1(CNC(=O)c2cc3c([nH]c2=O)CCCC3=O)CCCCCC1</t>
+          <t>Cn1c(-c2ccccc2)c([C@@H]2c3ccccc3C(=O)N2CC(N)=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2573,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>431.53</v>
+        <v>395.46</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
         <v>5</v>
       </c>
-      <c r="J31" t="n">
-        <v>4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
-      </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>117.36</v>
+        <v>68.33</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2602,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5174A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A19A0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2614,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C21882423</t>
+          <t>C49570370</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2622,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCc2c(sc3nc(CCC(=O)NCCc4ccc(Cl)cc4)[nH]c(=O)c23)C1</t>
+          <t>Cc1cc(C)c(C(N)=S)c(N[C@H]2CC[NH+]3CCCC[C@H]23)n1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCc2c(sc3nc(CCC(=O)NCCc4ccc(Cl)cc4)[nH]c(=O)c23)C1</t>
+          <t>Cc1cc(C)c(C(N)=S)c(N[C@H]2CC[NH+]3CCCC[C@H]23)n1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2641,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>429.97</v>
+        <v>305.47</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>74.84999999999999</v>
+        <v>55.38</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2670,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A13F0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2682,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C00320499</t>
+          <t>C15004701</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2690,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cc1ccc2nc(-c3ccccn3)c(Nc3c(C)cccc3C)n2c1</t>
+          <t>Cc1ccc2c(C)nc(N3CCC[C@@H]([NH2+]C[C@@H]4CCS(=O)(=O)C4)CC3)nc2c1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cc1ccc2nc(-c3ccccn3)c(Nc3c(C)cccc3C)n2c1</t>
+          <t>Cc1ccc2c(C)nc(N3CCC[C@@H]([NH2+]C[C@@H]4CCS(=O)(=O)C4)CC3)nc2c1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2709,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>328.42</v>
+        <v>403.57</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>42.22</v>
+        <v>79.77</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2738,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5174430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3B50&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2750,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C42484241</t>
+          <t>C02433709</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2758,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>c1ccc(-c2noc(CN3CCc4[nH]cnc4[C@H]3c3ccccn3)n2)cc1</t>
+          <t>CCN(CCO)c1ncnc2c1sc1[nH+]c(N3CCOCC3)c3c(c12)CCC3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>c1ccc(-c2noc(CN3CCc4[nH]cnc4[C@H]3c3ccccn3)n2)cc1</t>
+          <t>CCN(CCO)c1ncnc2c1sc1[nH+]c(N3CCOCC3)c3c(c12)CCC3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2777,7 +2751,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>358.4</v>
+        <v>400.53</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -2786,16 +2760,16 @@
         <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
         <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>83.73</v>
+        <v>75.86</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2806,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1930&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2818,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C11495095</t>
+          <t>C13626344</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2826,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cc1c(C#N)c(NC(=O)CSc2ncnc3c2cnn3C)n(-c2ccc(F)cc2)c1C</t>
+          <t>O=C([O-])CCC(=O)N1N=C(c2cc3ccccc3o2)C[C@@]12C(=O)Nc1ccccc12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cc1c(C#N)c(NC(=O)CSc2ncnc3c2cnn3C)n(-c2ccc(F)cc2)c1C</t>
+          <t>O=C([O-])CCC(=O)N1N=C(c2cc3ccccc3o2)C[C@@]12C(=O)Nc1ccccc12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2845,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>435.49</v>
+        <v>402.39</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
         <v>5</v>
       </c>
-      <c r="K35" t="n">
-        <v>4</v>
-      </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>101.42</v>
+        <v>115.04</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2874,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A18C0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2886,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C04734687</t>
+          <t>C08253455</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2894,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cn1c(-c2ccccc2)c([C@@H]2c3ccccc3C(=O)N2CC(N)=O)c2ccccc21</t>
+          <t>CCOc1c(C[NH2+]C23CC4C[C@@](C)(C2)C[C@](C)(C4)C3)cccc1OC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cn1c(-c2ccccc2)c([C@@H]2c3ccccc3C(=O)N2CC(N)=O)c2ccccc21</t>
+          <t>CCOc1c(C[NH2+]C23CC4C[C@](C)(C2)C[C@@](C)(C4)C3)cccc1OC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2909,11 +2883,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>395.46</v>
+        <v>344.52</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -2922,16 +2896,16 @@
         <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
         <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>68.33</v>
+        <v>35.07</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2942,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2AB0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2954,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C49570370</t>
+          <t>C00838172</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2962,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c(C(N)=S)c(N[C@H]2CC[NH+]3CCCC[C@H]23)n1</t>
+          <t>C[C@@H](O)CNc1nc2c(c(=O)n(C)c(=O)n2C)n1Cc1cccc(Br)c1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c(C(N)=S)c(N[C@H]2CC[NH+]3CCCC[C@H]23)n1</t>
+          <t>C[C@@H](O)CNc1nc2c(c(=O)n(C)c(=O)n2C)n1Cc1cccc(Br)c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2977,29 +2951,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>305.47</v>
+        <v>422.28</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
         <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>55.38</v>
+        <v>94.08</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -3010,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2110&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3022,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C15004701</t>
+          <t>C01243475</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3030,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(C)nc(N3CCC[C@@H]([NH2+]C[C@@H]4CCS(=O)(=O)C4)CC3)nc2c1</t>
+          <t>COc1cc(/C=N\n2c([S-])nnc2COc2ccccc2)cc(Br)c1O</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(C)nc(N3CCC[C@@H]([NH2+]C[C@@H]4CCS(=O)(=O)C4)CC3)nc2c1</t>
+          <t>COc1cc(/C=N\n2c([S-])nnc2COc2ccccc2)cc(Br)c1O</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3045,29 +3019,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>403.57</v>
+        <v>434.3</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>79.77</v>
+        <v>81.76000000000001</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3078,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5174970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1380&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3090,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C02433709</t>
+          <t>C09611429</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3098,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CCN(CCO)c1ncnc2c1sc1[nH+]c(N3CCOCC3)c3c(c12)CCC3</t>
+          <t>CCOC(=O)[C@H]1CCCN(C(=O)[C@@H](Cc2ccccc2)NS(=O)(=O)c2ccc3c(c2)CCC(=O)N3)C1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CCN(CCO)c1ncnc2c1sc1[nH+]c(N3CCOCC3)c3c(c12)CCC3</t>
+          <t>CCOC(=O)[C@H]1CCCN(C(=O)[C@@H](Cc2ccccc2)NS(=O)(=O)c2ccc3c(c2)CCC(=O)N3)C1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3113,29 +3087,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>400.53</v>
+        <v>513.62</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>75.86</v>
+        <v>121.88</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3146,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51757E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3220&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3158,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C13626344</t>
+          <t>CHEMBL4528675</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3166,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O=C([O-])CCC(=O)N1N=C(c2cc3ccccc3o2)C[C@@]12C(=O)Nc1ccccc12</t>
+          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O=C([O-])CCC(=O)N1N=C(c2cc3ccccc3o2)C[C@@]12C(=O)Nc1ccccc12</t>
+          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3181,40 +3155,66 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>402.39</v>
+        <v>535.55</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
         <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>115.04</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
+        <v>107.06</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>-14.17</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>CHEMBL4366410</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Inhibition of human FMS at 100 nM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1EE0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3226,7 +3226,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C08253455</t>
+          <t>CHEMBL4553144</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3234,12 +3234,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CCOc1c(C[NH2+]C23CC4C[C@@](C)(C2)C[C@](C)(C4)C3)cccc1OC</t>
+          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CCOc1c(C[NH2+]C23CC4C[C@](C)(C2)C[C@@](C)(C4)C3)cccc1OC</t>
+          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3249,17 +3249,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>344.52</v>
+        <v>548.95</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
         <v>6</v>
@@ -3268,21 +3268,47 @@
         <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>35.07</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+        <v>69.04000000000001</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>CHEMBL4313422</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Inhibition of human FMS at 10 uM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay relative to control</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5174740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3A70&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3294,7 +3320,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C00838172</t>
+          <t>CHEMBL4757546</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3302,12 +3328,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C[C@@H](O)CNc1nc2c(c(=O)n(C)c(=O)n2C)n1Cc1cccc(Br)c1</t>
+          <t>Cc1cc(Nc2cc(N3CCN(CCCN(C)C)CC3)ncn2)c(=O)n2c1C(=O)NC21CCCCC1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C[C@@H](O)CNc1nc2c(c(=O)n(C)c(=O)n2C)n1Cc1cccc(Br)c1</t>
+          <t>Cc1cc(Nc2cc(N3CCN(CCCN(C)C)CC3)ncn2)c(=O)n2c1C(=O)NC21CCCCC1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3317,40 +3343,66 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>422.28</v>
+        <v>494.64</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7</v>
+      </c>
+      <c r="K42" t="n">
         <v>5</v>
       </c>
-      <c r="J42" t="n">
-        <v>5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3</v>
-      </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>94.08</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+        <v>98.63</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>6</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>CHEMBL4666413</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Inhibition of CSF1R (unknown origin) at 500 nM relative to control</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1850&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3362,7 +3414,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C01243475</t>
+          <t>CHEMBL607196</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3370,12 +3422,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>COc1cc(/C=N\n2c([S-])nnc2COc2ccccc2)cc(Br)c1O</t>
+          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>COc1cc(/C=N\n2c([S-])nnc2COc2ccccc2)cc(Br)c1O</t>
+          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3385,40 +3437,66 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>434.3</v>
+        <v>380.45</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>81.76000000000001</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+        <v>49.41</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>11</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>CHEMBL1069291</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Inhibition of CSF1R at 10 uM</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3370&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3430,7 +3508,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C09611429</t>
+          <t>CHEMBL160937</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3438,12 +3516,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@H]1CCCN(C(=O)[C@@H](Cc2ccccc2)NS(=O)(=O)c2ccc3c(c2)CCC(=O)N3)C1</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@H]1CCCN(C(=O)[C@@H](Cc2ccccc2)NS(=O)(=O)c2ccc3c(c2)CCC(=O)N3)C1</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3453,40 +3531,66 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>513.62</v>
+        <v>314.73</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
         <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>121.88</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+        <v>78.43000000000001</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>CHEMBL1962102</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3060&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3498,7 +3602,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL4528675</t>
+          <t>CHEMBL385426</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3506,12 +3610,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
+          <t>CCc1cccc(CC)c1/C=C/c1cncc(C(=O)NC)c1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
+          <t>CCc1cccc(CC)c1/C=C/c1cncc(C(=O)NC)c1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3525,25 +3629,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>535.55</v>
+        <v>294.4</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>107.06</v>
+        <v>41.99</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3561,16 +3665,16 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>-14.17</v>
+        <v>2.64</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>CHEMBL4366410</t>
+          <t>CHEMBL1962102</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Inhibition of human FMS at 100 nM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay</t>
+          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -3580,7 +3684,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A12A0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3592,7 +3696,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL4553144</t>
+          <t>CHEMBL419903</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3600,12 +3704,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
+          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
+          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3619,25 +3723,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>548.95</v>
+        <v>295.32</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>69.04000000000001</v>
+        <v>57.78</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3655,16 +3759,16 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>18.96</v>
+        <v>1.62</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>CHEMBL4313422</t>
+          <t>CHEMBL1962102</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Inhibition of human FMS at 10 uM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay relative to control</t>
+          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -3674,7 +3778,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5174B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1D90&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3686,7 +3790,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL4757546</t>
+          <t>CHEMBL272026</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3694,12 +3798,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2cc(N3CCN(CCCN(C)C)CC3)ncn2)c(=O)n2c1C(=O)NC21CCCCC1</t>
+          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2cc(N3CCN(CCCN(C)C)CC3)ncn2)c(=O)n2c1C(=O)NC21CCCCC1</t>
+          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3713,25 +3817,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>494.64</v>
+        <v>467.51</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
         <v>8</v>
       </c>
-      <c r="J47" t="n">
-        <v>7</v>
-      </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>98.63</v>
+        <v>160.57</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3749,16 +3853,16 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>CHEMBL4666413</t>
+          <t>CHEMBL1962103</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Inhibition of CSF1R (unknown origin) at 500 nM relative to control</t>
+          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -3768,480 +3872,10 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5174120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3ED0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>CHEMBL607196</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>380.45</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3</v>
-      </c>
-      <c r="M48" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>11</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1069291</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R at 10 uM</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5174F20&gt;</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>CHEMBL160937</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>314.73</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2</v>
-      </c>
-      <c r="M49" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5174580&gt;</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>CHEMBL385426</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CCc1cccc(CC)c1/C=C/c1cncc(C(=O)NC)c1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>CCc1cccc(CC)c1/C=C/c1cncc(C(=O)NC)c1</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>294.4</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51746D0&gt;</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>CHEMBL419903</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>295.32</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M51" t="n">
-        <v>57.78</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175150&gt;</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CHEMBL272026</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>467.51</v>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>8</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3</v>
-      </c>
-      <c r="M52" t="n">
-        <v>160.57</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5175EE0&gt;</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
